--- a/Code_TestData/TestData.xlsx
+++ b/Code_TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -387,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,6 +669,9 @@
       </c>
       <c r="F5">
         <v>0.25</v>
+      </c>
+      <c r="I5">
+        <v>555525</v>
       </c>
     </row>
   </sheetData>
@@ -1438,7 +1441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>

--- a/Code_TestData/TestData.xlsx
+++ b/Code_TestData/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Capacities (MW)</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Price of Energy ($/MWh)</t>
+  </si>
+  <si>
+    <t>asjdjlakjd</t>
   </si>
 </sst>
 </file>
@@ -1436,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,6 +1607,11 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
